--- a/Code/AY 2020_21/08 Fitting Data/Sim1.xlsx
+++ b/Code/AY 2020_21/08 Fitting Data/Sim1.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimd/Dropbox/Lectures GITHUB/CT248/Code/AY 2020_21/08 Fitting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0B6950-F7D6-CD41-9053-320C818C067E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{94825378-C5D1-3046-868D-41E1B6F28DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="4800" windowWidth="25640" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sim1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -868,7 +879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
